--- a/Instructions/Tasks_pairing.xlsx
+++ b/Instructions/Tasks_pairing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminenke/Dropbox/Research/Projects/Attenuation/Instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB46B8BF-46C3-A447-B346-B89B43FE98AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0786603-405C-6A42-A3C9-1DD04ED59148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="20520" windowHeight="20820" xr2:uid="{70E35368-BA89-8F41-8F20-857100790B9C}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="20520" windowHeight="16280" xr2:uid="{70E35368-BA89-8F41-8F20-857100790B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Instructions/Tasks_pairing.xlsx
+++ b/Instructions/Tasks_pairing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianredl/Dropbox (Harvard University)/Attenuation/Instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0786603-405C-6A42-A3C9-1DD04ED59148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5290E9F6-20FA-4B4F-9A01-F6CACAAE57AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="20520" windowHeight="16280" xr2:uid="{70E35368-BA89-8F41-8F20-857100790B9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>Task A (more objective)</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>STO</t>
+  </si>
+  <si>
+    <t>Ecological product demand</t>
+  </si>
+  <si>
+    <t>GPT</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -658,7 +667,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -991,7 +1000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -1000,6 +1009,15 @@
       </c>
       <c r="C17" t="s">
         <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
